--- a/static/etfs/spy_stats.xlsx
+++ b/static/etfs/spy_stats.xlsx
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.886188142671018</v>
+        <v>5.93388496263248</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1025196629146017</v>
+        <v>0.102889709569888</v>
       </c>
     </row>
     <row r="7">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5518942240554165</v>
+        <v>-0.5518945936423756</v>
       </c>
     </row>
     <row r="8">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.185759622851765</v>
+        <v>0.1864300008645489</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.001028351306166742</v>
+        <v>0.005890973273291022</v>
       </c>
     </row>
     <row r="10">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03538400915204254</v>
+        <v>0.04154269528219223</v>
       </c>
     </row>
     <row r="11">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1119349976016737</v>
+        <v>0.1183428887445472</v>
       </c>
     </row>
     <row r="12">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2172580245841398</v>
+        <v>0.2256892982644889</v>
       </c>
     </row>
     <row r="13">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3524251597170207</v>
+        <v>0.3531297269810578</v>
       </c>
     </row>
     <row r="14">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1100747095096619</v>
+        <v>0.1155512095188809</v>
       </c>
     </row>
     <row r="15">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1649245750516195</v>
+        <v>0.1643311036855439</v>
       </c>
     </row>
     <row r="16">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1326897602414479</v>
+        <v>0.1357443593851126</v>
       </c>
     </row>
     <row r="17">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1025196629146017</v>
+        <v>0.102889709569888</v>
       </c>
     </row>
     <row r="18">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6075113493658699</v>
+        <v>0.6092696305384647</v>
       </c>
     </row>
     <row r="19">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9440956934645985</v>
+        <v>0.9468345917139104</v>
       </c>
     </row>
     <row r="20">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1160099108133372</v>
+        <v>0.1163373829721668</v>
       </c>
     </row>
     <row r="21">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1909592486369682</v>
+        <v>0.190945645640255</v>
       </c>
     </row>
     <row r="22">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07767203317304114</v>
+        <v>-0.07797112397197599</v>
       </c>
     </row>
     <row r="23">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.91027454254529</v>
+        <v>14.91180584155497</v>
       </c>
     </row>
     <row r="24">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1451980152302974</v>
+        <v>0.1451975482366494</v>
       </c>
     </row>
     <row r="25">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1094238212077423</v>
+        <v>-0.1094240315059939</v>
       </c>
     </row>
     <row r="26">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7273373585754618</v>
+        <v>0.7297414348483089</v>
       </c>
     </row>
     <row r="27">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.21977934142146</v>
+        <v>1.223587400874481</v>
       </c>
     </row>
     <row r="28">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1089874657028249</v>
+        <v>0.1093363402011792</v>
       </c>
     </row>
     <row r="29">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1498444489587117</v>
+        <v>0.1498288777091394</v>
       </c>
     </row>
     <row r="30">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5941443110109328</v>
+        <v>-0.5963071975206123</v>
       </c>
     </row>
     <row r="31">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.241542482659133</v>
+        <v>1.24493675727161</v>
       </c>
     </row>
     <row r="32">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1269835184149011</v>
+        <v>0.1269839532506791</v>
       </c>
     </row>
     <row r="33">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.165186817963778</v>
+        <v>-0.1651865499367586</v>
       </c>
     </row>
     <row r="34">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.675872899029034</v>
+        <v>0.6772579431261213</v>
       </c>
     </row>
     <row r="35">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.296199191652318</v>
+        <v>1.300899664855928</v>
       </c>
     </row>
     <row r="36">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1162342803880605</v>
+        <v>0.1166558419318951</v>
       </c>
     </row>
     <row r="37">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1719765366462302</v>
+        <v>0.1722472849759859</v>
       </c>
     </row>
     <row r="38">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.340799235209692</v>
+        <v>-1.33943994508856</v>
       </c>
     </row>
     <row r="39">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.166885127536847</v>
+        <v>2.150477354808426</v>
       </c>
     </row>
     <row r="40">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3230780966513047</v>
+        <v>0.3230772607083296</v>
       </c>
     </row>
     <row r="41">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.3679496612810947</v>
+        <v>-0.3679498353138527</v>
       </c>
     </row>
     <row r="42">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01743647487387586</v>
+        <v>-0.01743649825821612</v>
       </c>
     </row>
     <row r="43">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.74460431654676</v>
+        <v>22.74820143884892</v>
       </c>
     </row>
     <row r="44">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03275878310875805</v>
+        <v>0.03258979585582245</v>
       </c>
     </row>
     <row r="45">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.03767878743430514</v>
+        <v>-0.03814270203062086</v>
       </c>
     </row>
     <row r="46">

--- a/static/etfs/spy_stats.xlsx
+++ b/static/etfs/spy_stats.xlsx
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45574</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.93388496263248</v>
+        <v>5.965604585040944</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.102889709569888</v>
+        <v>0.1030544310498549</v>
       </c>
     </row>
     <row r="7">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5518945936423756</v>
+        <v>-0.5518942914853224</v>
       </c>
     </row>
     <row r="8">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1864300008645489</v>
+        <v>0.1867285685679096</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005890973273291022</v>
+        <v>0.01049222571944175</v>
       </c>
     </row>
     <row r="10">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04154269528219223</v>
+        <v>0.03566745439232011</v>
       </c>
     </row>
     <row r="11">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1183428887445472</v>
+        <v>0.1565755092799774</v>
       </c>
     </row>
     <row r="12">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2256892982644889</v>
+        <v>0.231295975361419</v>
       </c>
     </row>
     <row r="13">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3531297269810578</v>
+        <v>0.3618080932045116</v>
       </c>
     </row>
     <row r="14">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1155512095188809</v>
+        <v>0.1076129524783731</v>
       </c>
     </row>
     <row r="15">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1643311036855439</v>
+        <v>0.1594003868148499</v>
       </c>
     </row>
     <row r="16">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1357443593851126</v>
+        <v>0.1400507086498499</v>
       </c>
     </row>
     <row r="17">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.102889709569888</v>
+        <v>0.1030544310498549</v>
       </c>
     </row>
     <row r="18">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6092696305384647</v>
+        <v>0.6101879373370154</v>
       </c>
     </row>
     <row r="19">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9468345917139104</v>
+        <v>0.9482943235296799</v>
       </c>
     </row>
     <row r="20">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1163373829721668</v>
+        <v>0.1164791011154262</v>
       </c>
     </row>
     <row r="21">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.190945645640255</v>
+        <v>0.1908905338636565</v>
       </c>
     </row>
     <row r="22">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07797112397197599</v>
+        <v>-0.07810637857843707</v>
       </c>
     </row>
     <row r="23">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.91180584155497</v>
+        <v>14.91820951814579</v>
       </c>
     </row>
     <row r="24">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1451975482366494</v>
+        <v>0.1451976819366603</v>
       </c>
     </row>
     <row r="25">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1094240315059939</v>
+        <v>-0.1094237127263328</v>
       </c>
     </row>
     <row r="26">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7297414348483089</v>
+        <v>0.7312968694138792</v>
       </c>
     </row>
     <row r="27">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.223587400874481</v>
+        <v>1.22618432173116</v>
       </c>
     </row>
     <row r="28">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1093363402011792</v>
+        <v>0.1095683539990248</v>
       </c>
     </row>
     <row r="29">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1498288777091394</v>
+        <v>0.1498274621178699</v>
       </c>
     </row>
     <row r="30">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5963071975206123</v>
+        <v>-0.5976732581125482</v>
       </c>
     </row>
     <row r="31">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.24493675727161</v>
+        <v>1.246178794943214</v>
       </c>
     </row>
     <row r="32">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1269839532506791</v>
+        <v>0.1269834862793946</v>
       </c>
     </row>
     <row r="33">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1651865499367586</v>
+        <v>-0.1651864461434719</v>
       </c>
     </row>
     <row r="34">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6772579431261213</v>
+        <v>0.6781323216611722</v>
       </c>
     </row>
     <row r="35">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.300899664855928</v>
+        <v>1.304025506323574</v>
       </c>
     </row>
     <row r="36">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1166558419318951</v>
+        <v>0.1169362078106067</v>
       </c>
     </row>
     <row r="37">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1722472849759859</v>
+        <v>0.1724386289745877</v>
       </c>
     </row>
     <row r="38">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.33943994508856</v>
+        <v>-1.338006578613471</v>
       </c>
     </row>
     <row r="39">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.150477354808426</v>
+        <v>2.138568039775873</v>
       </c>
     </row>
     <row r="40">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3230772607083296</v>
+        <v>0.3230777427485665</v>
       </c>
     </row>
     <row r="41">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.3679498353138527</v>
+        <v>-0.3679500317111418</v>
       </c>
     </row>
     <row r="42">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01743649825821612</v>
+        <v>-0.01734594548537737</v>
       </c>
     </row>
     <row r="43">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.74820143884892</v>
+        <v>22.58928571428572</v>
       </c>
     </row>
     <row r="44">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03258979585582245</v>
+        <v>0.03261875203634849</v>
       </c>
     </row>
     <row r="45">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.03814270203062086</v>
+        <v>-0.03814273273584918</v>
       </c>
     </row>
     <row r="46">

--- a/static/etfs/spy_stats.xlsx
+++ b/static/etfs/spy_stats.xlsx
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45580</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.965604585040944</v>
+        <v>5.944097389663054</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1030544310498549</v>
+        <v>0.1027626746338377</v>
       </c>
     </row>
     <row r="7">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5518942914853224</v>
+        <v>-0.5518944158474273</v>
       </c>
     </row>
     <row r="8">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1867285685679096</v>
+        <v>0.1861998811422051</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01049222571944175</v>
+        <v>0.007372386357979099</v>
       </c>
     </row>
     <row r="10">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03566745439232011</v>
+        <v>0.04691905387796003</v>
       </c>
     </row>
     <row r="11">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1565755092799774</v>
+        <v>0.1502684455049339</v>
       </c>
     </row>
     <row r="12">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.231295975361419</v>
+        <v>0.2274944960805172</v>
       </c>
     </row>
     <row r="13">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3618080932045116</v>
+        <v>0.3932499135084342</v>
       </c>
     </row>
     <row r="14">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1076129524783731</v>
+        <v>0.09876941618098334</v>
       </c>
     </row>
     <row r="15">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1594003868148499</v>
+        <v>0.1579103757214124</v>
       </c>
     </row>
     <row r="16">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1400507086498499</v>
+        <v>0.1346289929303466</v>
       </c>
     </row>
     <row r="17">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1030544310498549</v>
+        <v>0.1027626746338377</v>
       </c>
     </row>
     <row r="18">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6101879373370154</v>
+        <v>0.6089650076316302</v>
       </c>
     </row>
     <row r="19">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9482943235296799</v>
+        <v>0.9463428233774425</v>
       </c>
     </row>
     <row r="20">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1164791011154262</v>
+        <v>0.1161856806650476</v>
       </c>
     </row>
     <row r="21">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1908905338636565</v>
+        <v>0.1907920475051822</v>
       </c>
     </row>
     <row r="22">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07810637857843707</v>
+        <v>-0.07794042787465638</v>
       </c>
     </row>
     <row r="23">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.91820951814579</v>
+        <v>14.93354976116918</v>
       </c>
     </row>
     <row r="24">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1451976819366603</v>
+        <v>0.1451975143334912</v>
       </c>
     </row>
     <row r="25">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1094237127263328</v>
+        <v>-0.1094238687839577</v>
       </c>
     </row>
     <row r="26">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7312968694138792</v>
+        <v>0.7302459826861845</v>
       </c>
     </row>
     <row r="27">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.22618432173116</v>
+        <v>1.224423077301568</v>
       </c>
     </row>
     <row r="28">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1095683539990248</v>
+        <v>0.1094110407325853</v>
       </c>
     </row>
     <row r="29">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1498274621178699</v>
+        <v>0.1498276516772069</v>
       </c>
     </row>
     <row r="30">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5976732581125482</v>
+        <v>-0.5967566315346984</v>
       </c>
     </row>
     <row r="31">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.246178794943214</v>
+        <v>1.245426429353444</v>
       </c>
     </row>
     <row r="32">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1269834862793946</v>
+        <v>0.126983612813558</v>
       </c>
     </row>
     <row r="33">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1651864461434719</v>
+        <v>-0.1651866692356952</v>
       </c>
     </row>
     <row r="34">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6781323216611722</v>
+        <v>0.67754355289548</v>
       </c>
     </row>
     <row r="35">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.304025506323574</v>
+        <v>1.301906022753695</v>
       </c>
     </row>
     <row r="36">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1169362078106067</v>
+        <v>0.1167461045753002</v>
       </c>
     </row>
     <row r="37">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1724386289745877</v>
+        <v>0.1723078967785703</v>
       </c>
     </row>
     <row r="38">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.338006578613471</v>
+        <v>-1.339024533770421</v>
       </c>
     </row>
     <row r="39">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.138568039775873</v>
+        <v>2.146729668974049</v>
       </c>
     </row>
     <row r="40">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3230777427485665</v>
+        <v>0.3230776573235361</v>
       </c>
     </row>
     <row r="41">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.3679500317111418</v>
+        <v>-0.3679498881406073</v>
       </c>
     </row>
     <row r="42">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01734594548537737</v>
+        <v>-0.01732437704933225</v>
       </c>
     </row>
     <row r="43">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.58928571428572</v>
+        <v>22.52669039145907</v>
       </c>
     </row>
     <row r="44">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03261875203634849</v>
+        <v>0.03259912018504131</v>
       </c>
     </row>
     <row r="45">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.03814273273584918</v>
+        <v>-0.03814271478766194</v>
       </c>
     </row>
     <row r="46">
